--- a/tut06/output/2001ME67.xlsx
+++ b/tut06/output/2001ME67.xlsx
@@ -537,7 +537,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +559,16 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -581,7 +581,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -691,7 +691,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -801,7 +801,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
